--- a/CSOF5100 Proyecto 1/Segunda Entrega/Priorizacion.xlsx
+++ b/CSOF5100 Proyecto 1/Segunda Entrega/Priorizacion.xlsx
@@ -4,24 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="8055" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="8055" windowHeight="7905" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Arquitectura" sheetId="1" r:id="rId1"/>
     <sheet name="Arquitectura 2" sheetId="2" r:id="rId2"/>
     <sheet name="Datos" sheetId="6" r:id="rId3"/>
     <sheet name="Datos 2" sheetId="7" r:id="rId4"/>
+    <sheet name="Aplicaciones" sheetId="9" r:id="rId5"/>
+    <sheet name="Aplicaciones 2" sheetId="10" r:id="rId6"/>
+    <sheet name="Tecnologia" sheetId="8" r:id="rId7"/>
+    <sheet name="Tecnologia 2" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Aplicaciones!$A$1:$K$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arquitectura!$A$1:$O$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Datos!$A$1:$M$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tecnologia!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="88">
   <si>
     <t>Timestamp</t>
   </si>
@@ -217,13 +223,82 @@
   <si>
     <t>3/21/2011 11:01:35</t>
   </si>
+  <si>
+    <t>Carlos Gonzalez</t>
+  </si>
+  <si>
+    <t>C1 Alineacion Estrategica</t>
+  </si>
+  <si>
+    <t>C2 Ventaja Competitiva</t>
+  </si>
+  <si>
+    <t>C3 Necesidad Operativa</t>
+  </si>
+  <si>
+    <t>C4 Complejidad</t>
+  </si>
+  <si>
+    <t>C5 Retorno de Inversion</t>
+  </si>
+  <si>
+    <t>P001 Integración con sistema de riesgos internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P002 Implementación de TRM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C1 Alineacion Estrategica</t>
+  </si>
+  <si>
+    <t>C4 Reduccion de Costo</t>
+  </si>
+  <si>
+    <t>C5 Complejidad</t>
+  </si>
+  <si>
+    <t>C6 Adaptacion Tecnica</t>
+  </si>
+  <si>
+    <t>C7 Dependencia con otros proyectos</t>
+  </si>
+  <si>
+    <t>C8 Retorno de Inversion</t>
+  </si>
+  <si>
+    <t>P003 Integración con sistema de pagos</t>
+  </si>
+  <si>
+    <t>P004 Adaptación sistema POManager a los nuevos drivers del negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P005 Adaptación sistema de auditoría </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P006 Invocacion sistema TRMSystem </t>
+  </si>
+  <si>
+    <t>P007 Integracion sistema InternationalRiskCualificationSystem</t>
+  </si>
+  <si>
+    <t>P008 Integracion sistema TRMSystem</t>
+  </si>
+  <si>
+    <t>P009 Integracion sistema PaymentSystem</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -254,11 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -381,11 +457,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62698624"/>
-        <c:axId val="62700160"/>
+        <c:axId val="54575872"/>
+        <c:axId val="54577408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62698624"/>
+        <c:axId val="54575872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +477,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62700160"/>
+        <c:crossAx val="54577408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62700160"/>
+        <c:axId val="54577408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -427,7 +503,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62698624"/>
+        <c:crossAx val="54575872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -441,7 +517,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -542,11 +618,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145462016"/>
-        <c:axId val="145463936"/>
+        <c:axId val="54757632"/>
+        <c:axId val="54767616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145462016"/>
+        <c:axId val="54757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,14 +638,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145463936"/>
+        <c:crossAx val="54767616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145463936"/>
+        <c:axId val="54767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -588,7 +664,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145462016"/>
+        <c:crossAx val="54757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,7 +678,655 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Proyectos Priorizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aplicaciones 2'!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aplicaciones!$S$18:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aplicaciones!$R$18:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="75137024"/>
+        <c:axId val="75138560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75137024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75138560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75138560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75137024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Proyectos Priorizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aplicaciones 2'!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Aplicaciones 2'!$D$42:$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aplicaciones 2'!$E$42:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00;[Red]0.00">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75057024"/>
+        <c:axId val="75058560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75057024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75058560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75058560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75057024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Proyectos Priorizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aplicaciones 2'!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tecnologia!$K$4:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tecnologia!$Q$4:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00;[Red]0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="103163776"/>
+        <c:axId val="103165312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103163776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103165312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103165312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103163776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Proyectos Priorizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tecnologia 2'!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calificación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tecnologia 2'!$D$25:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tecnologia 2'!$E$25:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00;[Red]0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="85100416"/>
+        <c:axId val="85101952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85100416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85101952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85101952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85100416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -656,6 +1380,146 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>509774</xdr:colOff>
       <xdr:row>49</xdr:row>
+      <xdr:rowOff>109199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>509774</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>109199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>509774</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>109199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4280,39 +5144,39 @@
         <v>0.05</v>
       </c>
       <c r="F31" s="3">
-        <f>E16*$E31</f>
+        <f t="shared" ref="F31:N31" si="0">E16*$E31</f>
         <v>0.1</v>
       </c>
       <c r="G31" s="3">
-        <f>F16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H31" s="3">
-        <f>G16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="I31" s="3">
-        <f>H16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J31" s="3">
-        <f>I16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K31" s="3">
-        <f>J16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="L31" s="3">
-        <f>K16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="M31" s="3">
-        <f>L16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="N31" s="3">
-        <f>M16*$E31</f>
+        <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -4324,39 +5188,39 @@
         <v>0.05</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:N32" si="0">E17*$E32</f>
+        <f t="shared" ref="F32:N32" si="1">E17*$E32</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4368,39 +5232,39 @@
         <v>0.1</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ref="F33:N33" si="1">E18*$E33</f>
+        <f t="shared" ref="F33:N33" si="2">E18*$E33</f>
         <v>0.4</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -4412,39 +5276,39 @@
         <v>0.15</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:N34" si="2">E19*$E34</f>
+        <f t="shared" ref="F34:N34" si="3">E19*$E34</f>
         <v>0.75</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4456,39 +5320,39 @@
         <v>0.15</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ref="F35:N35" si="3">E20*$E35</f>
+        <f t="shared" ref="F35:N35" si="4">E20*$E35</f>
         <v>0.6</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
     </row>
@@ -4500,39 +5364,39 @@
         <v>0.05</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:N36" si="4">E21*$E36</f>
+        <f t="shared" ref="F36:N36" si="5">E21*$E36</f>
         <v>0.2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -4544,39 +5408,39 @@
         <v>0.1</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:N37" si="5">E22*$E37</f>
+        <f t="shared" ref="F37:N37" si="6">E22*$E37</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
     </row>
@@ -4588,39 +5452,39 @@
         <v>0.1</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:N38" si="6">E23*$E38</f>
+        <f t="shared" ref="F38:N38" si="7">E23*$E38</f>
         <v>0.4</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4632,39 +5496,39 @@
         <v>0.1</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:N39" si="7">E24*$E39</f>
+        <f t="shared" ref="F39:N39" si="8">E24*$E39</f>
         <v>0.4</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4676,39 +5540,39 @@
         <v>0.1</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40:N40" si="8">E25*$E40</f>
+        <f t="shared" ref="F40:N40" si="9">E25*$E40</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
@@ -4720,39 +5584,39 @@
         <v>0.05</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" ref="F41:N41" si="9">E26*$E41</f>
+        <f t="shared" ref="F41:N41" si="10">E26*$E41</f>
         <v>0.1</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4762,35 +5626,35 @@
         <v>3.6999999999999997</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" ref="G42:N42" si="10">SUM(G31:G41)</f>
+        <f t="shared" ref="G42:N42" si="11">SUM(G31:G41)</f>
         <v>4.1000000000000005</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4500000000000006</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2500000000000004</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2000000000000006</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6999999999999997</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.95</v>
       </c>
     </row>
@@ -4800,35 +5664,35 @@
         <v>P1</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45:N45" si="11">G30</f>
+        <f t="shared" ref="G45:N45" si="12">G30</f>
         <v>P2</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P3</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P4</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P5</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P6</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P7</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P8</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>P9</v>
       </c>
     </row>
@@ -4838,35 +5702,35 @@
         <v>3.6999999999999997</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46:N46" si="12">G42</f>
+        <f t="shared" ref="G46:N46" si="13">G42</f>
         <v>4.1000000000000005</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4500000000000006</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2500000000000004</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2000000000000006</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6999999999999997</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.95</v>
       </c>
     </row>
@@ -6243,7 +7107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:F42"/>
     </sheetView>
   </sheetViews>
@@ -6642,27 +7506,27 @@
         <v>0.1</v>
       </c>
       <c r="F21" s="3">
-        <f>E13*$E21</f>
+        <f t="shared" ref="F21:K26" si="0">E13*$E21</f>
         <v>0.4</v>
       </c>
       <c r="G21" s="3">
-        <f>F13*$E21</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H21" s="3">
-        <f>G13*$E21</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="I21" s="3">
-        <f>H13*$E21</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J21" s="3">
-        <f>I13*$E21</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K21" s="3">
-        <f>J13*$E21</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="L21" s="3"/>
@@ -6677,27 +7541,27 @@
         <v>0.15</v>
       </c>
       <c r="F22" s="3">
-        <f>E14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="G22" s="3">
-        <f>F14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H22" s="3">
-        <f>G14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="I22" s="3">
-        <f>H14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J22" s="3">
-        <f>I14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="K22" s="3">
-        <f>J14*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="L22" s="3"/>
@@ -6712,27 +7576,27 @@
         <v>0.25</v>
       </c>
       <c r="F23" s="3">
-        <f>E15*$E23</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="G23" s="3">
-        <f>F15*$E23</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="H23" s="3">
-        <f>G15*$E23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I23" s="3">
-        <f>H15*$E23</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J23" s="3">
-        <f>I15*$E23</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="K23" s="3">
-        <f>J15*$E23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L23" s="3"/>
@@ -6747,27 +7611,27 @@
         <v>0.2</v>
       </c>
       <c r="F24" s="3">
-        <f>E16*$E24</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G24" s="3">
-        <f>F16*$E24</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="H24" s="3">
-        <f>G16*$E24</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="I24" s="3">
-        <f>H16*$E24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <f>I16*$E24</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="K24" s="3">
-        <f>J16*$E24</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="L24" s="3"/>
@@ -6782,27 +7646,27 @@
         <v>0.1</v>
       </c>
       <c r="F25" s="3">
-        <f>E17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G25" s="3">
-        <f>F17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H25" s="3">
-        <f>G17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="I25" s="3">
-        <f>H17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J25" s="3">
-        <f>I17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K25" s="3">
-        <f>J17*$E25</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="L25" s="3"/>
@@ -6817,27 +7681,27 @@
         <v>0.2</v>
       </c>
       <c r="F26" s="3">
-        <f>E18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G26" s="3">
-        <f>F18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H26" s="3">
-        <f>G18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="I26" s="3">
-        <f>H18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="J26" s="3">
-        <f>I18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="K26" s="3">
-        <f>J18*$E26</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="L26" s="3"/>
@@ -6846,27 +7710,27 @@
     </row>
     <row r="27" spans="4:14">
       <c r="F27" s="3">
-        <f>SUM(F21:F26)</f>
+        <f t="shared" ref="F27:K27" si="1">SUM(F21:F26)</f>
         <v>3.95</v>
       </c>
       <c r="G27" s="3">
-        <f>SUM(G21:G26)</f>
+        <f t="shared" si="1"/>
         <v>3.65</v>
       </c>
       <c r="H27" s="3">
-        <f>SUM(H21:H26)</f>
+        <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
       <c r="I27" s="3">
-        <f>SUM(I21:I26)</f>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="J27" s="3">
-        <f>SUM(J21:J26)</f>
+        <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
       <c r="K27" s="3">
-        <f>SUM(K21:K26)</f>
+        <f t="shared" si="1"/>
         <v>3.2500000000000004</v>
       </c>
       <c r="L27" s="3"/>
@@ -6879,23 +7743,23 @@
         <v>P1</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ref="G30:K30" si="0">G20</f>
+        <f t="shared" ref="G30:K30" si="2">G20</f>
         <v>P2</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>P3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>P4</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>P5</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>P6</v>
       </c>
     </row>
@@ -6905,23 +7769,23 @@
         <v>3.95</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ref="G31:K31" si="1">G27</f>
+        <f t="shared" ref="G31:K31" si="3">G27</f>
         <v>3.65</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.15</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.95</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2500000000000004</v>
       </c>
       <c r="L31" s="3"/>
@@ -7045,4 +7909,4664 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X55"/>
+  <sheetViews>
+    <sheetView topLeftCell="N14" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18:R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(D2:D7)*O2/6</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="P4" s="3">
+        <f>SUM(E2:E7)*P2/6</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>SUM(F2:F7)*Q2/6</f>
+        <v>0.65</v>
+      </c>
+      <c r="R4" s="3">
+        <f>SUM(G2:G7)*R2/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="3">
+        <f>SUM(H2:H7)*S2/6</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T4" s="3">
+        <f>SUM(I2:I7)*T2/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U4" s="3">
+        <f>SUM(J2:J7)*U2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="V4" s="3">
+        <f>SUM(K2:K7)*V2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="W4" s="3">
+        <f>SUM(O4:V4)</f>
+        <v>3.7416666666666663</v>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f>N4</f>
+        <v>P1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3">
+        <f>SUM(D8:D13)*O2/6</f>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="P5" s="3">
+        <f>SUM(E8:E13)*P2/6</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>SUM(F8:F13)*Q2/6</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R5" s="3">
+        <f>SUM(G8:G13)*R2/6</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="S5" s="3">
+        <f>SUM(H8:H13)*S2/6</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <f>SUM(I8:I13)*T2/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="U5" s="3">
+        <f>SUM(J8:J13)*U2/6</f>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="V5" s="3">
+        <f>SUM(K8:K13)*V2/6</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" ref="W5:W12" si="0">SUM(O5:V5)</f>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f t="shared" ref="X5:X12" si="1">N5</f>
+        <v>P2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="3">
+        <f>SUM(D14:D19)*O2/6</f>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="P6" s="3">
+        <f>SUM(E14:E19)*P2/6</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>SUM(F14:F19)*Q2/6</f>
+        <v>0.625</v>
+      </c>
+      <c r="R6" s="3">
+        <f>SUM(G14:G19)*R2/6</f>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="S6" s="3">
+        <f>SUM(H14:H19)*S2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="T6" s="3">
+        <f>SUM(I14:I19)*T2/6</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="U6" s="3">
+        <f>SUM(J14:J19)*U2/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM(K14:K19)*V2/6</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3">
+        <f>SUM(D20:D25)*O2/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P7" s="3">
+        <f>SUM(E20:E25)*P2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>SUM(F20:F25)*Q2/6</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="R7" s="3">
+        <f>SUM(G20:G25)*R2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S7" s="3">
+        <f>SUM(H20:H25)*S2/6</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="T7" s="3">
+        <f>SUM(I20:I25)*T2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="U7" s="3">
+        <f>SUM(J20:J25)*U2/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V7" s="3">
+        <f>SUM(K20:K25)*V2/6</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5916666666666659</v>
+      </c>
+      <c r="X7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="3">
+        <f>SUM(D26:D31)*O2/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P8" s="3">
+        <f>SUM(E26:E31)*P2/6</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>SUM(F26:F31)*Q2/6</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R8" s="3">
+        <f>SUM(G26:G31)*R2/6</f>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="S8" s="3">
+        <f>SUM(H26:H31)*S2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="T8" s="3">
+        <f>SUM(I26:I31)*T2/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="U8" s="3">
+        <f>SUM(J26:J31)*U2/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V8" s="3">
+        <f>SUM(K26:K31)*V2/6</f>
+        <v>0.375</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9666666666666663</v>
+      </c>
+      <c r="X8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="3">
+        <f>SUM(D32:D37)*O2/6</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="P9" s="3">
+        <f>SUM(E32:E37)*P2/6</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>SUM(F32:F37)*Q2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="R9" s="3">
+        <f>SUM(G32:G37)*R2/6</f>
+        <v>0.31666666666666671</v>
+      </c>
+      <c r="S9" s="3">
+        <f>SUM(H32:H37)*S2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="T9" s="3">
+        <f>SUM(I32:I37)*T2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="U9" s="3">
+        <f>SUM(J32:J37)*U2/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V9" s="3">
+        <f>SUM(K32:K37)*V2/6</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5666666666666664</v>
+      </c>
+      <c r="X9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="3">
+        <f>SUM(D38:D43)*O2/6</f>
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="3">
+        <f>SUM(E38:E43)*P2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>SUM(F38:F43)*Q2/6</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="R10" s="3">
+        <f>SUM(G38:G43)*R2/6</f>
+        <v>0.3</v>
+      </c>
+      <c r="S10" s="3">
+        <f>SUM(H38:H43)*S2/6</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T10" s="3">
+        <f>SUM(I38:I43)*T2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="U10" s="3">
+        <f>SUM(J38:J43)*U2/6</f>
+        <v>0.15</v>
+      </c>
+      <c r="V10" s="3">
+        <f>SUM(K38:K43)*V2/6</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6583333333333328</v>
+      </c>
+      <c r="X10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="3">
+        <f>SUM(D44:D49)*O2/6</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="P11" s="3">
+        <f>SUM(E44:E49)*P2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>SUM(F44:F49)*Q2/6</f>
+        <v>0.65</v>
+      </c>
+      <c r="R11" s="3">
+        <f>SUM(G44:G49)*R2/6</f>
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="3">
+        <f>SUM(H44:H49)*S2/6</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="T11" s="3">
+        <f>SUM(I44:I49)*T2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="U11" s="3">
+        <f>SUM(J44:J49)*U2/6</f>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="V11" s="3">
+        <f>SUM(K44:K49)*V2/6</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5833333333333326</v>
+      </c>
+      <c r="X11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="3">
+        <f>SUM(D50:D55)*O2/6</f>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="P12" s="3">
+        <f>SUM(E50:E55)*P2/6</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>SUM(F50:F55)*Q2/6</f>
+        <v>0.625</v>
+      </c>
+      <c r="R12" s="3">
+        <f>SUM(G50:G55)*R2/6</f>
+        <v>0.31666666666666671</v>
+      </c>
+      <c r="S12" s="3">
+        <f>SUM(H50:H55)*S2/6</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="T12" s="3">
+        <f>SUM(I50:I55)*T2/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U12" s="3">
+        <f>SUM(J50:J55)*U2/6</f>
+        <v>0.15</v>
+      </c>
+      <c r="V12" s="3">
+        <f>SUM(K50:K55)*V2/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8166666666666664</v>
+      </c>
+      <c r="X12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18">
+        <f>R18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T26" si="2">R19</f>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R20" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="S20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R21" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="S22" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R23" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="5">
+        <v>3.58</v>
+      </c>
+      <c r="S24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R25" s="5">
+        <v>3.57</v>
+      </c>
+      <c r="S25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R26" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="S26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <f>SUM(N19:N26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4">
+        <v>40760.7419212963</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4">
+        <v>40760.747534722221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4">
+        <v>40760.752152777779</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4">
+        <v>40760.775891203702</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="4">
+        <v>40760.778796296298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4">
+        <v>40760.783009259256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K55"/>
+  <sortState ref="R18:S26">
+    <sortCondition descending="1" ref="R18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40760.782638888886</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="2" customFormat="1"/>
+    <row r="13" spans="2:12">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="3">
+        <f>D14*$D24</f>
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="3">
+        <f>E14*$D24</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <f>F14*$D24</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <f>G14*$D24</f>
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="3">
+        <f>H14*$D24</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J24" s="3">
+        <f>I14*$D24</f>
+        <v>0.8</v>
+      </c>
+      <c r="K24" s="3">
+        <f>J14*$D24</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K14*$D24</f>
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="3">
+        <f>L14*$D24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E25" s="3">
+        <f>D15*$D25</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F25" s="3">
+        <f>E15*$D25</f>
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="3">
+        <f>F15*$D25</f>
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="3">
+        <f>G15*$D25</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I25" s="3">
+        <f>H15*$D25</f>
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I15*$D25</f>
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="3">
+        <f>J15*$D25</f>
+        <v>0.6</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K15*$D25</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M25" s="3">
+        <f>L15*$D25</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E26" s="3">
+        <f>D16*$D26</f>
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="3">
+        <f>E16*$D26</f>
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="3">
+        <f>F16*$D26</f>
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G16*$D26</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I26" s="3">
+        <f>H16*$D26</f>
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I16*$D26</f>
+        <v>0.6</v>
+      </c>
+      <c r="K26" s="3">
+        <f>J16*$D26</f>
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="3">
+        <f>K16*$D26</f>
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="3">
+        <f>L16*$D26</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D17*$D27</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F27" s="3">
+        <f>E17*$D27</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G27" s="3">
+        <f>F17*$D27</f>
+        <v>0.4</v>
+      </c>
+      <c r="H27" s="3">
+        <f>G17*$D27</f>
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="3">
+        <f>H17*$D27</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J27" s="3">
+        <f>I17*$D27</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K27" s="3">
+        <f>J17*$D27</f>
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="3">
+        <f>K17*$D27</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M27" s="3">
+        <f>L17*$D27</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E28" s="3">
+        <f>D18*$D28</f>
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="3">
+        <f>E18*$D28</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G28" s="3">
+        <f>F18*$D28</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H28" s="3">
+        <f>G18*$D28</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I28" s="3">
+        <f>H18*$D28</f>
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="3">
+        <f>I18*$D28</f>
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="3">
+        <f>J18*$D28</f>
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="3">
+        <f>K18*$D28</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M28" s="3">
+        <f>L18*$D28</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="3">
+        <f>D19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <f>E19*$D29</f>
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="3">
+        <f>F19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H29" s="3">
+        <f>G19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I29" s="3">
+        <f>H19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J29" s="3">
+        <f>I19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K29" s="3">
+        <f>J19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L29" s="3">
+        <f>K19*$D29</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M29" s="3">
+        <f>L19*$D29</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D20*$D30</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F30" s="3">
+        <f>E20*$D30</f>
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="3">
+        <f>F20*$D30</f>
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="3">
+        <f>G20*$D30</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I30" s="3">
+        <f>H20*$D30</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J30" s="3">
+        <f>I20*$D30</f>
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="3">
+        <f>J20*$D30</f>
+        <v>0.2</v>
+      </c>
+      <c r="L30" s="3">
+        <f>K20*$D30</f>
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="3">
+        <f>L20*$D30</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E31" s="3">
+        <f>D21*$D31</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F31" s="3">
+        <f>E21*$D31</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G31" s="3">
+        <f>F21*$D31</f>
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="3">
+        <f>G21*$D31</f>
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="3">
+        <f>H21*$D31</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J31" s="3">
+        <f>I21*$D31</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="K31" s="3">
+        <f>J21*$D31</f>
+        <v>0.6</v>
+      </c>
+      <c r="L31" s="3">
+        <f>K21*$D31</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M31" s="3">
+        <f>L21*$D31</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="E32" s="3">
+        <f>SUM(E24:E31)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM(F24:F31)</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="G32" s="3">
+        <f>SUM(G24:G31)</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H32" s="3">
+        <f>SUM(H24:H31)</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="I32" s="3">
+        <f>SUM(I24:I31)</f>
+        <v>3.45</v>
+      </c>
+      <c r="J32" s="3">
+        <f>SUM(J24:J31)</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="K32" s="3">
+        <f>SUM(K24:K31)</f>
+        <v>4.3</v>
+      </c>
+      <c r="L32" s="3">
+        <f>SUM(L24:L31)</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="M32" s="3">
+        <f>SUM(M24:M31)</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="E35" t="str">
+        <f>E23</f>
+        <v>P1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:M35" si="0">F23</f>
+        <v>P2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>P8</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>P9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="E36" s="3">
+        <f>E32</f>
+        <v>3.5</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ref="F36:M36" si="1">F32</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.45</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="E39" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F39">
+        <v>3.85</v>
+      </c>
+      <c r="G39">
+        <v>4.2</v>
+      </c>
+      <c r="H39">
+        <v>3.45</v>
+      </c>
+      <c r="I39">
+        <v>3.45</v>
+      </c>
+      <c r="J39">
+        <v>3.85</v>
+      </c>
+      <c r="K39">
+        <v>4.3</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D42:E50">
+    <sortCondition descending="1" ref="E42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4">
+        <v>40760.7425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K8</f>
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="1">
+        <f>K9</f>
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K10</f>
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <f>K11</f>
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="1">
+        <f>K12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4">
+        <v>40760.748113425929</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4">
+        <v>40760.754166666666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="3">
+        <f>SUM(D2:D7)*L2/6</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:P4" si="0">SUM(E2:E7)*M2/6</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63333333333333341</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>SUM(L4:P4)</f>
+        <v>4.0083333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>40760.771620370368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3">
+        <f>SUM(D8:D13)*L2/6</f>
+        <v>1.125</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:P5" si="1">SUM(E8:E13)*M2/6</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63333333333333341</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28333333333333338</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>SUM(L5:P5)</f>
+        <v>3.7666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>40760.776585648149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>40760.780277777776</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>40760.7425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>40760.748113425929</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>40760.754166666666</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>40760.771620370368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>40760.776585648149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>40760.780277777776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(K8:K12)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4">
+        <v>40760.779861111114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="4">
+        <v>40760.779861111114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <f>E3</f>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>E4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f>F3</f>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>F4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <f>G3</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>G4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <f>H3</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>H4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <f>I3</f>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f>I4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D7*$D14</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f>E7*$D14</f>
+        <v>1.25</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D8*$D15</f>
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="3">
+        <f>E8*$D15</f>
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D9*$D16</f>
+        <v>1.25</v>
+      </c>
+      <c r="F16" s="3">
+        <f>E9*$D16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D10*$D17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E10*$D17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D11*$D18</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18" s="3">
+        <f>E11*$D18</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="E19" s="3">
+        <f>SUM(E14:E18)</f>
+        <v>3.95</v>
+      </c>
+      <c r="F19" s="3">
+        <f>SUM(F14:F18)</f>
+        <v>3.95</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="E21" t="str">
+        <f>E13</f>
+        <v>P1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21" si="0">F13</f>
+        <v>P2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="E22" s="3">
+        <f>E19</f>
+        <v>3.95</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22" si="1">F19</f>
+        <v>3.95</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="D25" t="str">
+        <f>E21</f>
+        <v>P1</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E22</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="D26" t="str">
+        <f>F21</f>
+        <v>P2</v>
+      </c>
+      <c r="E26" s="3">
+        <f>F22</f>
+        <v>3.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>